--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Наименование</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>http://79.174.68.175:57003</t>
+  </si>
+  <si>
+    <t>http://46.38.47.43:9090</t>
+  </si>
+  <si>
+    <t>KWAK pub Мичуринский</t>
+  </si>
+  <si>
+    <t>mitch_adm/mitch</t>
+  </si>
+  <si>
+    <t>mitch_cash/mitch_cash</t>
+  </si>
+  <si>
+    <t>KWAK pub Покровка</t>
   </si>
 </sst>
 </file>
@@ -650,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1044,15 +1059,38 @@
         <v>79</v>
       </c>
     </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="2">
+        <v>361750001</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1"/>
     <hyperlink ref="D12" r:id="rId2"/>
     <hyperlink ref="D13" r:id="rId3"/>
     <hyperlink ref="D20" r:id="rId4"/>
+    <hyperlink ref="D22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>Наименование</t>
   </si>
@@ -286,13 +286,34 @@
   </si>
   <si>
     <t>KWAK pub Покровка</t>
+  </si>
+  <si>
+    <t>http://82.204.144.18:9090</t>
+  </si>
+  <si>
+    <t>pokrovka_adm/pokrov</t>
+  </si>
+  <si>
+    <t>pokrovka_cash/pokrovka_cash</t>
+  </si>
+  <si>
+    <t>veep_KWAK-Mich-operator</t>
+  </si>
+  <si>
+    <t>veep_KWAK-Mich-api</t>
+  </si>
+  <si>
+    <t>veep_KWAK-Pokr-operator</t>
+  </si>
+  <si>
+    <t>veep_KWAK-Pokr-api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +341,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -356,7 +384,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -370,6 +398,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -667,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,7 +709,7 @@
     <col min="5" max="5" width="32.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1061,24 +1090,54 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="2">
+        <v>204001</v>
       </c>
       <c r="C22" s="2">
-        <v>361750001</v>
+        <v>361750003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="B23" s="2">
+        <v>204002</v>
+      </c>
+      <c r="C23" s="2">
+        <v>361750001</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1087,10 +1146,11 @@
     <hyperlink ref="D12" r:id="rId2"/>
     <hyperlink ref="D13" r:id="rId3"/>
     <hyperlink ref="D20" r:id="rId4"/>
-    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D23" r:id="rId5"/>
+    <hyperlink ref="D22" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -291,12 +291,6 @@
     <t>http://82.204.144.18:9090</t>
   </si>
   <si>
-    <t>pokrovka_adm/pokrov</t>
-  </si>
-  <si>
-    <t>pokrovka_cash/pokrovka_cash</t>
-  </si>
-  <si>
     <t>veep_KWAK-Mich-operator</t>
   </si>
   <si>
@@ -307,6 +301,12 @@
   </si>
   <si>
     <t>veep_KWAK-Pokr-api</t>
+  </si>
+  <si>
+    <t>pokr_adm/pokr</t>
+  </si>
+  <si>
+    <t>pokr_cash/pokr_cash</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1102,16 +1102,16 @@
         <v>90</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1128,10 +1128,10 @@
         <v>85</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>87</v>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>Наименование</t>
   </si>
@@ -243,9 +243,6 @@
     <t>http://95.84.195.96:9090</t>
   </si>
   <si>
-    <t>http://79.174.68.175:57001</t>
-  </si>
-  <si>
     <t>veep_chacha-atrium-api</t>
   </si>
   <si>
@@ -307,6 +304,24 @@
   </si>
   <si>
     <t>pokr_cash/pokr_cash</t>
+  </si>
+  <si>
+    <t>http://213.33.203.206:57001/</t>
+  </si>
+  <si>
+    <t>veep_HIV_patr-api</t>
+  </si>
+  <si>
+    <t>veep_HIV_patr-operator</t>
+  </si>
+  <si>
+    <t>hiv_patr_adm/hiv_patr</t>
+  </si>
+  <si>
+    <t>hiv_patr_cash/hiv_cash</t>
+  </si>
+  <si>
+    <t>hiv_patr/hiv</t>
   </si>
 </sst>
 </file>
@@ -697,7 +712,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,7 +720,7 @@
     <col min="1" max="1" width="30.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
@@ -1013,6 +1028,21 @@
       <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
@@ -1021,14 +1051,17 @@
       <c r="B17" s="2">
         <v>203001</v>
       </c>
+      <c r="C17" s="2">
+        <v>784680002</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1038,14 +1071,17 @@
       <c r="B18" s="2">
         <v>203002</v>
       </c>
+      <c r="C18" s="2">
+        <v>784680507</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1059,7 +1095,7 @@
         <v>784680001</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1073,24 +1109,24 @@
         <v>784680004</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2">
         <v>204001</v>
@@ -1099,24 +1135,24 @@
         <v>361750003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2">
         <v>204002</v>
@@ -1125,19 +1161,19 @@
         <v>361750001</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1145,12 +1181,11 @@
     <hyperlink ref="D11" r:id="rId1"/>
     <hyperlink ref="D12" r:id="rId2"/>
     <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D20" r:id="rId4"/>
-    <hyperlink ref="D23" r:id="rId5"/>
-    <hyperlink ref="D22" r:id="rId6"/>
+    <hyperlink ref="D23" r:id="rId4"/>
+    <hyperlink ref="D22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -712,7 +712,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
   <si>
     <t>Наименование</t>
   </si>
@@ -322,13 +322,85 @@
   </si>
   <si>
     <t>hiv_patr/hiv</t>
+  </si>
+  <si>
+    <t>ЛК Логин</t>
+  </si>
+  <si>
+    <t>ЛК Пароль</t>
+  </si>
+  <si>
+    <t>luce</t>
+  </si>
+  <si>
+    <t>vogue</t>
+  </si>
+  <si>
+    <t>brisket</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>hiv-1905</t>
+  </si>
+  <si>
+    <t>hiv-tver</t>
+  </si>
+  <si>
+    <t>hiv-patr</t>
+  </si>
+  <si>
+    <t>hiv-maros</t>
+  </si>
+  <si>
+    <t>hiv-nik</t>
+  </si>
+  <si>
+    <t>noodle-mega</t>
+  </si>
+  <si>
+    <t>chacha-mega</t>
+  </si>
+  <si>
+    <t>noodle-rio</t>
+  </si>
+  <si>
+    <t>chacha-atr</t>
+  </si>
+  <si>
+    <t>kwak-pokr</t>
+  </si>
+  <si>
+    <t>kwak-mich</t>
+  </si>
+  <si>
+    <t>bulka-gruz</t>
+  </si>
+  <si>
+    <t>bulka-pokr</t>
+  </si>
+  <si>
+    <t>kimchi-bel</t>
+  </si>
+  <si>
+    <t>kimchi-rev</t>
+  </si>
+  <si>
+    <t>kimchi-serp</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,7 +471,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -414,6 +486,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -421,6 +500,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,9 +586,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +638,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -708,14 +831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
@@ -726,10 +849,12 @@
     <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="12.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,8 +882,14 @@
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -769,7 +900,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -794,8 +928,14 @@
       <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -820,8 +960,14 @@
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -846,8 +992,14 @@
       <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -872,8 +1024,14 @@
       <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -898,8 +1056,17 @@
       <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -927,8 +1094,14 @@
       <c r="I11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -956,8 +1129,14 @@
       <c r="I12" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -985,8 +1164,14 @@
       <c r="I13" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1014,8 +1199,14 @@
       <c r="I14" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1043,8 +1234,17 @@
       <c r="I15" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1063,8 +1263,14 @@
       <c r="F17" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1083,8 +1289,14 @@
       <c r="F18" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -1097,8 +1309,15 @@
       <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1123,8 +1342,19 @@
       <c r="H20" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="6"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1149,8 +1379,15 @@
       <c r="H22" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1174,6 +1411,59 @@
       </c>
       <c r="H23" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1190,12 +1480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1203,12 +1493,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,27 +586,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,24 +620,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -831,14 +795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
@@ -854,7 +818,7 @@
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +853,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -900,10 +864,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -935,7 +899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -943,7 +907,7 @@
         <v>201002</v>
       </c>
       <c r="C6" s="2">
-        <v>136230001</v>
+        <v>209631111</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -967,7 +931,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -975,7 +939,7 @@
         <v>201003</v>
       </c>
       <c r="C7" s="2">
-        <v>209631111</v>
+        <v>136230001</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -999,7 +963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +995,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1063,10 +1027,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1101,7 +1065,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1171,7 +1135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1241,10 +1205,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1270,7 +1234,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1296,7 +1260,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -1317,7 +1281,7 @@
       </c>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1350,11 +1314,11 @@
       </c>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="J21" s="6"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1387,7 +1351,7 @@
       </c>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1420,10 +1384,10 @@
       </c>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="J25" s="8" t="s">
         <v>120</v>
       </c>
@@ -1431,7 +1395,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="J26" s="8" t="s">
         <v>121</v>
       </c>
@@ -1439,10 +1403,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="J28" s="8" t="s">
         <v>122</v>
       </c>
@@ -1450,7 +1414,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="J29" s="8" t="s">
         <v>123</v>
       </c>
@@ -1458,7 +1422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="J30" s="8" t="s">
         <v>124</v>
       </c>
@@ -1480,12 +1444,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1493,12 +1457,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
   <si>
     <t>Наименование</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>КИМЧИ на Белорусской</t>
+  </si>
+  <si>
+    <t>http://79.135.234.242:9090</t>
   </si>
 </sst>
 </file>
@@ -798,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1388,6 +1394,18 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="2">
+        <v>206001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>326250001</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="J25" s="8" t="s">
         <v>120</v>
       </c>
@@ -1437,9 +1455,10 @@
     <hyperlink ref="D13" r:id="rId3"/>
     <hyperlink ref="D23" r:id="rId4"/>
     <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
   <si>
     <t>Наименование</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>http://79.135.234.242:9090</t>
+  </si>
+  <si>
+    <t>КИМЧИ на Серпуховской</t>
+  </si>
+  <si>
+    <t>http://81.23.8.161:9090</t>
   </si>
 </sst>
 </file>
@@ -804,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1394,18 +1400,6 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="2">
-        <v>206001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>326250001</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J25" s="8" t="s">
         <v>120</v>
       </c>
@@ -1425,6 +1419,18 @@
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="2">
+        <v>206001</v>
+      </c>
+      <c r="C28" s="2">
+        <v>326250001</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="J28" s="8" t="s">
         <v>122</v>
       </c>
@@ -1441,6 +1447,18 @@
       </c>
     </row>
     <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="2">
+        <v>206003</v>
+      </c>
+      <c r="C30" s="2">
+        <v>326250002</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="J30" s="8" t="s">
         <v>124</v>
       </c>
@@ -1455,10 +1473,11 @@
     <hyperlink ref="D13" r:id="rId3"/>
     <hyperlink ref="D23" r:id="rId4"/>
     <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D25" r:id="rId6"/>
+    <hyperlink ref="D28" r:id="rId6"/>
+    <hyperlink ref="D30" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
   <si>
     <t>Наименование</t>
   </si>
@@ -406,6 +406,36 @@
   </si>
   <si>
     <t>http://81.23.8.161:9090</t>
+  </si>
+  <si>
+    <t>kimchi_bel_adm/kimchi</t>
+  </si>
+  <si>
+    <t>kimchi_bel_cash/bel_cash</t>
+  </si>
+  <si>
+    <t>kimchi_rev_adm/kimchi</t>
+  </si>
+  <si>
+    <t>kimchi_rev_cash/rev_cash</t>
+  </si>
+  <si>
+    <t>kimchi_serp_adm/kimchi</t>
+  </si>
+  <si>
+    <t>kimchi_serp_cash/serp_cash</t>
+  </si>
+  <si>
+    <t>veep_kimchi-bel-operator</t>
+  </si>
+  <si>
+    <t>veep_kimchi-bel-api</t>
+  </si>
+  <si>
+    <t>veep_kimchi-serp-operator</t>
+  </si>
+  <si>
+    <t>veep_kimchi-serp-api</t>
   </si>
 </sst>
 </file>
@@ -811,7 +841,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1431,6 +1461,18 @@
       <c r="D28" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="J28" s="8" t="s">
         <v>122</v>
       </c>
@@ -1439,6 +1481,12 @@
       </c>
     </row>
     <row r="29" spans="1:13">
+      <c r="G29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J29" s="8" t="s">
         <v>123</v>
       </c>
@@ -1458,6 +1506,18 @@
       </c>
       <c r="D30" s="3" t="s">
         <v>129</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>124</v>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
   <si>
     <t>Наименование</t>
   </si>
@@ -408,24 +408,6 @@
     <t>http://81.23.8.161:9090</t>
   </si>
   <si>
-    <t>kimchi_bel_adm/kimchi</t>
-  </si>
-  <si>
-    <t>kimchi_bel_cash/bel_cash</t>
-  </si>
-  <si>
-    <t>kimchi_rev_adm/kimchi</t>
-  </si>
-  <si>
-    <t>kimchi_rev_cash/rev_cash</t>
-  </si>
-  <si>
-    <t>kimchi_serp_adm/kimchi</t>
-  </si>
-  <si>
-    <t>kimchi_serp_cash/serp_cash</t>
-  </si>
-  <si>
     <t>veep_kimchi-bel-operator</t>
   </si>
   <si>
@@ -436,6 +418,36 @@
   </si>
   <si>
     <t>veep_kimchi-serp-api</t>
+  </si>
+  <si>
+    <t>КИМЧИ на Площадь Революции</t>
+  </si>
+  <si>
+    <t>http://79.174.68.175:57006</t>
+  </si>
+  <si>
+    <t>veep_kimchi-rev-api</t>
+  </si>
+  <si>
+    <t>veep_kimchi-rev-operator</t>
+  </si>
+  <si>
+    <t>kimchi-bel_adm/kimchi-bel</t>
+  </si>
+  <si>
+    <t>kimchi-bel_cash/kimchi-bel_cash</t>
+  </si>
+  <si>
+    <t>kimchi-serp_adm/kimchi-serp</t>
+  </si>
+  <si>
+    <t>kimchi-serp_cash/kimchi-serp_cash</t>
+  </si>
+  <si>
+    <t>kimchi-rev_adm/kimchi-rev</t>
+  </si>
+  <si>
+    <t>kimchi-rev_cash/kimchi-rev_cash</t>
   </si>
 </sst>
 </file>
@@ -841,7 +853,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1462,16 +1474,16 @@
         <v>127</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>122</v>
@@ -1481,11 +1493,29 @@
       </c>
     </row>
     <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="2">
+        <v>206002</v>
+      </c>
+      <c r="C29" s="2">
+        <v>326250003</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>123</v>
@@ -1508,16 +1538,16 @@
         <v>129</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>124</v>
@@ -1535,9 +1565,10 @@
     <hyperlink ref="D22" r:id="rId5"/>
     <hyperlink ref="D28" r:id="rId6"/>
     <hyperlink ref="D30" r:id="rId7"/>
+    <hyperlink ref="D29" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -853,7 +853,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,7 +1500,7 @@
         <v>206002</v>
       </c>
       <c r="C29" s="2">
-        <v>326250003</v>
+        <v>164060001</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>135</v>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
   <si>
     <t>Наименование</t>
   </si>
@@ -378,12 +378,6 @@
     <t>kwak-mich</t>
   </si>
   <si>
-    <t>bulka-gruz</t>
-  </si>
-  <si>
-    <t>bulka-pokr</t>
-  </si>
-  <si>
     <t>kimchi-bel</t>
   </si>
   <si>
@@ -448,6 +442,15 @@
   </si>
   <si>
     <t>kimchi-rev_cash/kimchi-rev_cash</t>
+  </si>
+  <si>
+    <t>belnet00</t>
+  </si>
+  <si>
+    <t>Мерчант Psw</t>
+  </si>
+  <si>
+    <t>Belnet[0]</t>
   </si>
 </sst>
 </file>
@@ -850,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,16 +866,17 @@
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,25 +893,28 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -918,10 +925,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:11">
+    <row r="4" spans="1:12">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -938,22 +945,25 @@
         <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -970,22 +980,25 @@
         <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1002,22 +1015,25 @@
         <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1034,22 +1050,25 @@
         <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1066,25 +1085,28 @@
         <v>67</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1101,25 +1123,28 @@
         <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1136,25 +1161,28 @@
         <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1171,25 +1199,28 @@
         <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1206,25 +1237,28 @@
         <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1240,29 +1274,32 @@
       <c r="E15" t="s">
         <v>98</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1278,17 +1315,20 @@
       <c r="E17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1304,17 +1344,20 @@
       <c r="E18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -1327,15 +1370,15 @@
       <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1352,27 +1395,30 @@
         <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="J21" s="6"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="K21" s="6"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1388,24 +1434,27 @@
       <c r="E22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="L22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1421,139 +1470,132 @@
       <c r="E23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2">
+        <v>206001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>326250001</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="J25" s="8" t="s">
+      <c r="E25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="J26" s="8" t="s">
+      <c r="L25" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="2">
+        <v>206002</v>
+      </c>
+      <c r="C26" s="2">
+        <v>164060001</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="2">
-        <v>206001</v>
-      </c>
-      <c r="C28" s="2">
-        <v>326250001</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B27" s="2">
+        <v>206003</v>
+      </c>
+      <c r="C27" s="2">
+        <v>326250002</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="2">
-        <v>206002</v>
-      </c>
-      <c r="C29" s="2">
-        <v>164060001</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="2">
-        <v>206003</v>
-      </c>
-      <c r="C30" s="2">
-        <v>326250002</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>125</v>
+      <c r="L27" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1563,9 +1605,9 @@
     <hyperlink ref="D13" r:id="rId3"/>
     <hyperlink ref="D23" r:id="rId4"/>
     <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D28" r:id="rId6"/>
-    <hyperlink ref="D30" r:id="rId7"/>
-    <hyperlink ref="D29" r:id="rId8"/>
+    <hyperlink ref="D25" r:id="rId6"/>
+    <hyperlink ref="D27" r:id="rId7"/>
+    <hyperlink ref="D26" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId9"/>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
   <si>
     <t>Наименование</t>
   </si>
@@ -451,6 +451,30 @@
   </si>
   <si>
     <t>Belnet[0]</t>
+  </si>
+  <si>
+    <t>veep_BULKA-Pokr-api</t>
+  </si>
+  <si>
+    <t>veep_BULKA-Pokr-operator</t>
+  </si>
+  <si>
+    <t>Fkfhv[1]</t>
+  </si>
+  <si>
+    <t>http://195.9.55.114:9090</t>
+  </si>
+  <si>
+    <t>БУЛКА на Б.Грузинской</t>
+  </si>
+  <si>
+    <t>БУЛКА на Покровке</t>
+  </si>
+  <si>
+    <t>bulka-pokr_adm/bulka-pokr</t>
+  </si>
+  <si>
+    <t>bulka-pokr_cash/bulka-pokr_cash</t>
   </si>
 </sst>
 </file>
@@ -853,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1598,6 +1622,43 @@
         <v>123</v>
       </c>
     </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="2">
+        <v>205001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2">
+        <v>205002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>233070001</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1"/>
@@ -1608,9 +1669,10 @@
     <hyperlink ref="D25" r:id="rId6"/>
     <hyperlink ref="D27" r:id="rId7"/>
     <hyperlink ref="D26" r:id="rId8"/>
+    <hyperlink ref="D30" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="159">
   <si>
     <t>Наименование</t>
   </si>
@@ -475,6 +475,24 @@
   </si>
   <si>
     <t>bulka-pokr_cash/bulka-pokr_cash</t>
+  </si>
+  <si>
+    <t>bulka-pokr</t>
+  </si>
+  <si>
+    <t>veep_BULKA-Gruz-operator</t>
+  </si>
+  <si>
+    <t>veep_BULKA-Gruz-api</t>
+  </si>
+  <si>
+    <t>bulka-gruz_adm/bulka-gruz</t>
+  </si>
+  <si>
+    <t>bulka-gruz_cash/bulka-gruz_cash</t>
+  </si>
+  <si>
+    <t>bulka-gruz</t>
   </si>
 </sst>
 </file>
@@ -880,7 +898,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1629,6 +1647,27 @@
       <c r="B29" s="2">
         <v>205001</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2" t="s">
@@ -1657,6 +1696,12 @@
       </c>
       <c r="I30" s="2" t="s">
         <v>152</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="160">
   <si>
     <t>Наименование</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>bulka-gruz</t>
+  </si>
+  <si>
+    <t>http://195.9.3.30:9090</t>
   </si>
 </sst>
 </file>
@@ -898,7 +901,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A29" sqref="A29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1647,6 +1650,9 @@
       <c r="B29" s="2">
         <v>205001</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>154</v>
       </c>
@@ -1715,9 +1721,10 @@
     <hyperlink ref="D27" r:id="rId7"/>
     <hyperlink ref="D26" r:id="rId8"/>
     <hyperlink ref="D30" r:id="rId9"/>
+    <hyperlink ref="D29" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/docs/Restaurant_info.xlsx
+++ b/docs/Restaurant_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="167">
   <si>
     <t>Наименование</t>
   </si>
@@ -496,6 +496,27 @@
   </si>
   <si>
     <t>http://195.9.3.30:9090</t>
+  </si>
+  <si>
+    <t>STARLITE DINER на Пушкинской</t>
+  </si>
+  <si>
+    <t>starlite-push-operator</t>
+  </si>
+  <si>
+    <t>starlite-push-api</t>
+  </si>
+  <si>
+    <t>starlite-push_cash/starlite_cash</t>
+  </si>
+  <si>
+    <t>starlite-push_adm/starlite_adm</t>
+  </si>
+  <si>
+    <t>starlite-push</t>
+  </si>
+  <si>
+    <t>http://213.184.131.242:9090</t>
   </si>
 </sst>
 </file>
@@ -573,7 +594,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -595,6 +616,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -898,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,7 +935,7 @@
     <col min="5" max="5" width="32.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
@@ -1707,6 +1729,41 @@
         <v>153</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="2">
+        <v>207001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>308520005</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1722,9 +1779,10 @@
     <hyperlink ref="D26" r:id="rId8"/>
     <hyperlink ref="D30" r:id="rId9"/>
     <hyperlink ref="D29" r:id="rId10"/>
+    <hyperlink ref="D32" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId12"/>
 </worksheet>
 </file>
 
